--- a/bond-act-data.xlsx
+++ b/bond-act-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christineloughran/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christineloughran/Desktop/map_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08D0B9B6-3BE1-9F45-AC43-D2F1843CA8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3C2C12-EBA8-8847-B30B-A87084FDF6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="860" windowWidth="25880" windowHeight="17420" activeTab="2" xr2:uid="{9C250925-C4DB-244A-BF80-A1D9C2D76446}"/>
+    <workbookView xWindow="2180" yWindow="1140" windowWidth="25880" windowHeight="17420" xr2:uid="{9C250925-C4DB-244A-BF80-A1D9C2D76446}"/>
   </bookViews>
   <sheets>
     <sheet name="1996" sheetId="1" r:id="rId1"/>
@@ -499,11 +499,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A9AF2A-87A9-F34D-A873-0F64BFC491B6}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -867,8 +868,8 @@
       <c r="B2" s="1">
         <v>38762</v>
       </c>
-      <c r="C2" s="2">
-        <f t="shared" ref="C2:C33" si="0">B2/H2</f>
+      <c r="C2" s="4">
+        <f t="shared" ref="C2:C63" si="0">B2/H2</f>
         <v>0.27099660922151919</v>
       </c>
       <c r="D2" s="1">
@@ -881,7 +882,7 @@
       <c r="F2" s="1">
         <v>44272</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <f>F2/H2</f>
         <v>0.30951864928164435</v>
       </c>
@@ -896,7 +897,7 @@
       <c r="B3" s="1">
         <v>3881</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <f t="shared" si="0"/>
         <v>0.21546746613368864</v>
       </c>
@@ -910,7 +911,7 @@
       <c r="F3" s="1">
         <v>6362</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <f t="shared" ref="G3:G63" si="2">F3/H3</f>
         <v>0.35320897179658006</v>
       </c>
@@ -925,7 +926,7 @@
       <c r="B4" s="1">
         <v>18809</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
         <v>0.21304623609632331</v>
       </c>
@@ -939,7 +940,7 @@
       <c r="F4" s="1">
         <v>32692</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <f t="shared" si="2"/>
         <v>0.37029653625716424</v>
       </c>
@@ -954,7 +955,7 @@
       <c r="B5" s="1">
         <v>7324</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>0.22858926342072408</v>
       </c>
@@ -968,7 +969,7 @@
       <c r="F5" s="1">
         <v>11030</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <f t="shared" si="2"/>
         <v>0.34425717852684146</v>
       </c>
@@ -983,7 +984,7 @@
       <c r="B6" s="1">
         <v>5548</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>0.17112893275755706</v>
       </c>
@@ -997,7 +998,7 @@
       <c r="F6" s="1">
         <v>11301</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <f t="shared" si="2"/>
         <v>0.3485811227637261</v>
       </c>
@@ -1012,7 +1013,7 @@
       <c r="B7" s="1">
         <v>11724</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>0.20659030837004405</v>
       </c>
@@ -1026,7 +1027,7 @@
       <c r="F7" s="1">
         <v>20455</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <f t="shared" si="2"/>
         <v>0.36044052863436121</v>
       </c>
@@ -1041,7 +1042,7 @@
       <c r="B8" s="1">
         <v>6293</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>0.17391184192344894</v>
       </c>
@@ -1055,7 +1056,7 @@
       <c r="F8" s="1">
         <v>16065</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <f t="shared" si="2"/>
         <v>0.44396849523283127</v>
       </c>
@@ -1070,7 +1071,7 @@
       <c r="B9" s="1">
         <v>3401</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>0.17398199304276651</v>
       </c>
@@ -1084,7 +1085,7 @@
       <c r="F9" s="1">
         <v>7491</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <f t="shared" si="2"/>
         <v>0.38321055862492326</v>
       </c>
@@ -1099,7 +1100,7 @@
       <c r="B10" s="1">
         <v>11913</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>0.40302445955546534</v>
       </c>
@@ -1113,7 +1114,7 @@
       <c r="F10" s="1">
         <v>9028</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <f t="shared" si="2"/>
         <v>0.30542305220068339</v>
       </c>
@@ -1131,7 +1132,7 @@
       <c r="B11" s="1">
         <v>7168</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>0.25698203850428425</v>
       </c>
@@ -1145,7 +1146,7 @@
       <c r="F11" s="1">
         <v>9737</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <f t="shared" si="2"/>
         <v>0.34908399956978453</v>
       </c>
@@ -1160,7 +1161,7 @@
       <c r="B12" s="1">
         <v>4808</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>0.24362807195338232</v>
       </c>
@@ -1174,7 +1175,7 @@
       <c r="F12" s="1">
         <v>5937</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <f t="shared" si="2"/>
         <v>0.30083607803394985</v>
       </c>
@@ -1189,7 +1190,7 @@
       <c r="B13" s="1">
         <v>3548</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>0.18051386415670312</v>
       </c>
@@ -1203,7 +1204,7 @@
       <c r="F13" s="1">
         <v>6736</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="4">
         <f t="shared" si="2"/>
         <v>0.34271177817349274</v>
       </c>
@@ -1218,7 +1219,7 @@
       <c r="B14" s="1">
         <v>39206</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>0.3747717778861136</v>
       </c>
@@ -1232,7 +1233,7 @@
       <c r="F14" s="1">
         <v>38841</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="4">
         <f t="shared" si="2"/>
         <v>0.37128272776805943</v>
       </c>
@@ -1247,7 +1248,7 @@
       <c r="B15" s="1">
         <v>103571</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>0.24978656080725839</v>
       </c>
@@ -1261,7 +1262,7 @@
       <c r="F15" s="1">
         <v>155488</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="4">
         <f t="shared" si="2"/>
         <v>0.37499698532213643</v>
       </c>
@@ -1276,7 +1277,7 @@
       <c r="B16" s="1">
         <v>5015</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>0.29094389975053664</v>
       </c>
@@ -1290,7 +1291,7 @@
       <c r="F16" s="1">
         <v>5649</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <f t="shared" si="2"/>
         <v>0.32772524221152172</v>
       </c>
@@ -1305,7 +1306,7 @@
       <c r="B17" s="1">
         <v>4810</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>0.28927110897281694</v>
       </c>
@@ -1319,7 +1320,7 @@
       <c r="F17" s="1">
         <v>5509</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="4">
         <f t="shared" si="2"/>
         <v>0.33130863603560262</v>
       </c>
@@ -1334,7 +1335,7 @@
       <c r="B18" s="1">
         <v>3918</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>0.18448933465178696</v>
       </c>
@@ -1348,7 +1349,7 @@
       <c r="F18" s="1">
         <v>4327</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="4">
         <f t="shared" si="2"/>
         <v>0.20374817535433443</v>
       </c>
@@ -1363,7 +1364,7 @@
       <c r="B19" s="1">
         <v>4159</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>0.16885911490052782</v>
       </c>
@@ -1377,7 +1378,7 @@
       <c r="F19" s="1">
         <v>9416</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="4">
         <f t="shared" si="2"/>
         <v>0.38229801055623225</v>
       </c>
@@ -1392,7 +1393,7 @@
       <c r="B20" s="1">
         <v>5177</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <f t="shared" si="0"/>
         <v>0.25374963238898146</v>
       </c>
@@ -1406,7 +1407,7 @@
       <c r="F20" s="1">
         <v>6205</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="4">
         <f t="shared" si="2"/>
         <v>0.30413684932849722</v>
       </c>
@@ -1421,7 +1422,7 @@
       <c r="B21" s="1">
         <v>671</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <f t="shared" si="0"/>
         <v>0.18318318318318319</v>
       </c>
@@ -1435,7 +1436,7 @@
       <c r="F21" s="1">
         <v>738</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="4">
         <f t="shared" si="2"/>
         <v>0.20147420147420148</v>
       </c>
@@ -1450,7 +1451,7 @@
       <c r="B22" s="1">
         <v>5253</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <f t="shared" si="0"/>
         <v>0.19546773833444966</v>
       </c>
@@ -1464,7 +1465,7 @@
       <c r="F22" s="1">
         <v>10366</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="4">
         <f t="shared" si="2"/>
         <v>0.38572598050160006</v>
       </c>
@@ -1479,7 +1480,7 @@
       <c r="B23" s="1">
         <v>6336</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <f t="shared" si="0"/>
         <v>0.18451323567954803</v>
       </c>
@@ -1493,7 +1494,7 @@
       <c r="F23" s="1">
         <v>12664</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="4">
         <f t="shared" si="2"/>
         <v>0.36879350010192491</v>
       </c>
@@ -1508,7 +1509,7 @@
       <c r="B24" s="1">
         <v>1305</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <f t="shared" si="0"/>
         <v>0.12651478429471644</v>
       </c>
@@ -1522,7 +1523,7 @@
       <c r="F24" s="1">
         <v>3860</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="4">
         <f t="shared" si="2"/>
         <v>0.37421231216674744</v>
       </c>
@@ -1537,7 +1538,7 @@
       <c r="B25" s="1">
         <v>5433</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <f t="shared" si="0"/>
         <v>0.21377980640591801</v>
       </c>
@@ -1551,7 +1552,7 @@
       <c r="F25" s="1">
         <v>8274</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="4">
         <f t="shared" si="2"/>
         <v>0.32556858424490437</v>
       </c>
@@ -1566,7 +1567,7 @@
       <c r="B26" s="1">
         <v>5386</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>0.19753539206337564</v>
       </c>
@@ -1580,7 +1581,7 @@
       <c r="F26" s="1">
         <v>9051</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="4">
         <f t="shared" si="2"/>
         <v>0.33195188146409449</v>
       </c>
@@ -1595,7 +1596,7 @@
       <c r="B27" s="1">
         <v>82528</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>0.26360961960462392</v>
       </c>
@@ -1609,7 +1610,7 @@
       <c r="F27" s="1">
         <v>116014</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="4">
         <f t="shared" si="2"/>
         <v>0.3705700660237839</v>
       </c>
@@ -1624,7 +1625,7 @@
       <c r="B28" s="1">
         <v>3782</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>0.17693567251461989</v>
       </c>
@@ -1638,7 +1639,7 @@
       <c r="F28" s="1">
         <v>6395</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="4">
         <f t="shared" si="2"/>
         <v>0.2991812865497076</v>
       </c>
@@ -1653,7 +1654,7 @@
       <c r="B29" s="1">
         <v>211873</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>0.38459360211725879</v>
       </c>
@@ -1667,7 +1668,7 @@
       <c r="F29" s="1">
         <v>251186</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="4">
         <f t="shared" si="2"/>
         <v>0.45595488118554878</v>
       </c>
@@ -1682,7 +1683,7 @@
       <c r="B30" s="1">
         <v>20757</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <f t="shared" si="0"/>
         <v>0.2300275940024602</v>
       </c>
@@ -1696,7 +1697,7 @@
       <c r="F30" s="1">
         <v>26420</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="4">
         <f t="shared" si="2"/>
         <v>0.29278455622416527</v>
       </c>
@@ -1711,7 +1712,7 @@
       <c r="B31" s="1">
         <v>18714</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <f t="shared" si="0"/>
         <v>0.19538933784376369</v>
       </c>
@@ -1725,7 +1726,7 @@
       <c r="F31" s="1">
         <v>41619</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="4">
         <f t="shared" si="2"/>
         <v>0.434536114765395</v>
       </c>
@@ -1740,7 +1741,7 @@
       <c r="B32" s="1">
         <v>49472</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <f t="shared" si="0"/>
         <v>0.2517748723873115</v>
       </c>
@@ -1754,7 +1755,7 @@
       <c r="F32" s="1">
         <v>57391</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="4">
         <f t="shared" si="2"/>
         <v>0.29207656252385583</v>
       </c>
@@ -1769,7 +1770,7 @@
       <c r="B33" s="1">
         <v>9272</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <f t="shared" si="0"/>
         <v>0.22230214102471887</v>
       </c>
@@ -1783,7 +1784,7 @@
       <c r="F33" s="1">
         <v>12831</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="4">
         <f t="shared" si="2"/>
         <v>0.30763144645040641</v>
       </c>
@@ -1798,21 +1799,21 @@
       <c r="B34" s="1">
         <v>40269</v>
       </c>
-      <c r="C34" s="2">
-        <f t="shared" ref="C34:C63" si="3">B34/H34</f>
+      <c r="C34" s="4">
+        <f t="shared" si="0"/>
         <v>0.34676988788040575</v>
       </c>
       <c r="D34" s="1">
         <v>26536</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" ref="E34:E63" si="4">D34/H34</f>
+        <f t="shared" ref="E34:E63" si="3">D34/H34</f>
         <v>0.22851041110517886</v>
       </c>
       <c r="F34" s="1">
         <v>49321</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="4">
         <f t="shared" si="2"/>
         <v>0.42471970101441536</v>
       </c>
@@ -1827,21 +1828,21 @@
       <c r="B35" s="1">
         <v>2886</v>
       </c>
-      <c r="C35" s="2">
-        <f t="shared" si="3"/>
+      <c r="C35" s="4">
+        <f t="shared" si="0"/>
         <v>0.18674776756826711</v>
       </c>
       <c r="D35" s="1">
         <v>7009</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.45353953668953023</v>
       </c>
       <c r="F35" s="1">
         <v>5559</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="4">
         <f t="shared" si="2"/>
         <v>0.35971269574220266</v>
       </c>
@@ -1856,21 +1857,21 @@
       <c r="B36" s="1">
         <v>7867</v>
       </c>
-      <c r="C36" s="2">
-        <f t="shared" si="3"/>
+      <c r="C36" s="4">
+        <f t="shared" si="0"/>
         <v>0.17025558898002466</v>
       </c>
       <c r="D36" s="1">
         <v>21606</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.46759149046681237</v>
       </c>
       <c r="F36" s="1">
         <v>16734</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="4">
         <f t="shared" si="2"/>
         <v>0.36215292055316295</v>
       </c>
@@ -1885,21 +1886,21 @@
       <c r="B37" s="1">
         <v>5567</v>
       </c>
-      <c r="C37" s="2">
-        <f t="shared" si="3"/>
+      <c r="C37" s="4">
+        <f t="shared" si="0"/>
         <v>0.22824928249282492</v>
       </c>
       <c r="D37" s="1">
         <v>10800</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.44280442804428044</v>
       </c>
       <c r="F37" s="1">
         <v>8023</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="4">
         <f t="shared" si="2"/>
         <v>0.32894628946289461</v>
       </c>
@@ -1914,21 +1915,21 @@
       <c r="B38" s="1">
         <v>12381</v>
       </c>
-      <c r="C38" s="2">
-        <f t="shared" si="3"/>
+      <c r="C38" s="4">
+        <f t="shared" si="0"/>
         <v>0.31840041146971843</v>
       </c>
       <c r="D38" s="1">
         <v>10985</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.28249967853928248</v>
       </c>
       <c r="F38" s="1">
         <v>15519</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="4">
         <f t="shared" si="2"/>
         <v>0.39909990999099909</v>
       </c>
@@ -1943,21 +1944,21 @@
       <c r="B39" s="1">
         <v>16212</v>
       </c>
-      <c r="C39" s="2">
-        <f t="shared" si="3"/>
+      <c r="C39" s="4">
+        <f t="shared" si="0"/>
         <v>0.2356566610945563</v>
       </c>
       <c r="D39" s="1">
         <v>32766</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.4762846137073915</v>
       </c>
       <c r="F39" s="1">
         <v>19817</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="4">
         <f t="shared" si="2"/>
         <v>0.2880587251980522</v>
       </c>
@@ -1972,21 +1973,21 @@
       <c r="B40" s="1">
         <v>51417</v>
       </c>
-      <c r="C40" s="2">
-        <f t="shared" si="3"/>
+      <c r="C40" s="4">
+        <f t="shared" si="0"/>
         <v>0.45226409119696009</v>
       </c>
       <c r="D40" s="1">
         <v>29437</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.25892794314263601</v>
       </c>
       <c r="F40" s="1">
         <v>32834</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="4">
         <f t="shared" si="2"/>
         <v>0.2888079656604039</v>
       </c>
@@ -2001,21 +2002,21 @@
       <c r="B41" s="1">
         <v>9761</v>
       </c>
-      <c r="C41" s="2">
-        <f t="shared" si="3"/>
+      <c r="C41" s="4">
+        <f t="shared" si="0"/>
         <v>0.25006404672849308</v>
       </c>
       <c r="D41" s="1">
         <v>17165</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.43974483783368346</v>
       </c>
       <c r="F41" s="1">
         <v>12108</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="4">
         <f t="shared" si="2"/>
         <v>0.31019111543782346</v>
       </c>
@@ -2030,21 +2031,21 @@
       <c r="B42" s="1">
         <v>23095</v>
       </c>
-      <c r="C42" s="2">
-        <f t="shared" si="3"/>
+      <c r="C42" s="4">
+        <f t="shared" si="0"/>
         <v>0.26643055731804388</v>
       </c>
       <c r="D42" s="1">
         <v>40567</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.46799257063091954</v>
       </c>
       <c r="F42" s="1">
         <v>23021</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="4">
         <f t="shared" si="2"/>
         <v>0.26557687205103653</v>
       </c>
@@ -2059,21 +2060,21 @@
       <c r="B43" s="1">
         <v>16317</v>
       </c>
-      <c r="C43" s="2">
-        <f t="shared" si="3"/>
+      <c r="C43" s="4">
+        <f t="shared" si="0"/>
         <v>0.24217103505595297</v>
       </c>
       <c r="D43" s="1">
         <v>31438</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.46659146902549792</v>
       </c>
       <c r="F43" s="1">
         <v>19623</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="4">
         <f t="shared" si="2"/>
         <v>0.29123749591854908</v>
       </c>
@@ -2088,21 +2089,21 @@
       <c r="B44" s="1">
         <v>2602</v>
       </c>
-      <c r="C44" s="2">
-        <f t="shared" si="3"/>
+      <c r="C44" s="4">
+        <f t="shared" si="0"/>
         <v>0.19429510155316607</v>
       </c>
       <c r="D44" s="1">
         <v>7285</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.54398148148148151</v>
       </c>
       <c r="F44" s="1">
         <v>3505</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="4">
         <f t="shared" si="2"/>
         <v>0.26172341696535245</v>
       </c>
@@ -2117,21 +2118,21 @@
       <c r="B45" s="1">
         <v>1835</v>
       </c>
-      <c r="C45" s="2">
-        <f t="shared" si="3"/>
+      <c r="C45" s="4">
+        <f t="shared" si="0"/>
         <v>0.23662153449387491</v>
       </c>
       <c r="D45" s="1">
         <v>4034</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.52018052869116704</v>
       </c>
       <c r="F45" s="1">
         <v>1886</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="4">
         <f t="shared" si="2"/>
         <v>0.2431979368149581</v>
       </c>
@@ -2146,21 +2147,21 @@
       <c r="B46" s="1">
         <v>3312</v>
       </c>
-      <c r="C46" s="2">
-        <f t="shared" si="3"/>
+      <c r="C46" s="4">
+        <f t="shared" si="0"/>
         <v>0.23526069043898282</v>
       </c>
       <c r="D46" s="1">
         <v>6223</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.44203722119619265</v>
       </c>
       <c r="F46" s="1">
         <v>4543</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="4">
         <f t="shared" si="2"/>
         <v>0.32270208836482456</v>
       </c>
@@ -2175,21 +2176,21 @@
       <c r="B47" s="1">
         <v>8081</v>
       </c>
-      <c r="C47" s="2">
-        <f t="shared" si="3"/>
+      <c r="C47" s="4">
+        <f t="shared" si="0"/>
         <v>0.20989610389610389</v>
       </c>
       <c r="D47" s="1">
         <v>15025</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.39025974025974025</v>
       </c>
       <c r="F47" s="1">
         <v>15394</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="4">
         <f t="shared" si="2"/>
         <v>0.39984415584415584</v>
       </c>
@@ -2204,21 +2205,21 @@
       <c r="B48" s="1">
         <v>236190</v>
       </c>
-      <c r="C48" s="2">
-        <f t="shared" si="3"/>
+      <c r="C48" s="4">
+        <f t="shared" si="0"/>
         <v>0.46178210078693971</v>
       </c>
       <c r="D48" s="1">
         <v>141810</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.27725695293025077</v>
       </c>
       <c r="F48" s="1">
         <v>133475</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="4">
         <f t="shared" si="2"/>
         <v>0.26096094628280952</v>
       </c>
@@ -2233,21 +2234,21 @@
       <c r="B49" s="1">
         <v>8721</v>
       </c>
-      <c r="C49" s="2">
-        <f t="shared" si="3"/>
+      <c r="C49" s="4">
+        <f t="shared" si="0"/>
         <v>0.30340244920679099</v>
       </c>
       <c r="D49" s="1">
         <v>7369</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.25636654606178683</v>
       </c>
       <c r="F49" s="1">
         <v>12654</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="4">
         <f t="shared" si="2"/>
         <v>0.44023100473142224</v>
       </c>
@@ -2262,21 +2263,21 @@
       <c r="B50" s="1">
         <v>4270</v>
       </c>
-      <c r="C50" s="2">
-        <f t="shared" si="3"/>
+      <c r="C50" s="4">
+        <f t="shared" si="0"/>
         <v>0.19896556544429431</v>
       </c>
       <c r="D50" s="1">
         <v>10115</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.47132006896230372</v>
       </c>
       <c r="F50" s="1">
         <v>7076</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="4">
         <f t="shared" si="2"/>
         <v>0.329714365593402</v>
       </c>
@@ -2291,21 +2292,21 @@
       <c r="B51" s="1">
         <v>13539</v>
       </c>
-      <c r="C51" s="2">
-        <f t="shared" si="3"/>
+      <c r="C51" s="4">
+        <f t="shared" si="0"/>
         <v>0.36112667040089619</v>
       </c>
       <c r="D51" s="1">
         <v>13265</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.35381824971326453</v>
       </c>
       <c r="F51" s="1">
         <v>10687</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="4">
         <f t="shared" si="2"/>
         <v>0.28505507988583928</v>
       </c>
@@ -2320,21 +2321,21 @@
       <c r="B52" s="1">
         <v>27068</v>
       </c>
-      <c r="C52" s="2">
-        <f t="shared" si="3"/>
+      <c r="C52" s="4">
+        <f t="shared" si="0"/>
         <v>0.36197812190751288</v>
       </c>
       <c r="D52" s="1">
         <v>20884</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.27928000213966675</v>
       </c>
       <c r="F52" s="1">
         <v>26808</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="4">
         <f t="shared" si="2"/>
         <v>0.35850116344379362</v>
       </c>
@@ -2349,21 +2350,21 @@
       <c r="B53" s="1">
         <v>6927</v>
       </c>
-      <c r="C53" s="2">
-        <f t="shared" si="3"/>
+      <c r="C53" s="4">
+        <f t="shared" si="0"/>
         <v>0.25642259569112313</v>
       </c>
       <c r="D53" s="1">
         <v>14278</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.52854075664470279</v>
       </c>
       <c r="F53" s="1">
         <v>5809</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="4">
         <f t="shared" si="2"/>
         <v>0.21503664766417413</v>
       </c>
@@ -2378,21 +2379,21 @@
       <c r="B54" s="1">
         <v>4270</v>
       </c>
-      <c r="C54" s="2">
-        <f t="shared" si="3"/>
+      <c r="C54" s="4">
+        <f t="shared" si="0"/>
         <v>0.18622704871560034</v>
       </c>
       <c r="D54" s="1">
         <v>11509</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.50194077369270351</v>
       </c>
       <c r="F54" s="1">
         <v>7150</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="4">
         <f t="shared" si="2"/>
         <v>0.31183217759169612</v>
       </c>
@@ -2407,21 +2408,21 @@
       <c r="B55" s="1">
         <v>8283</v>
       </c>
-      <c r="C55" s="2">
-        <f t="shared" si="3"/>
+      <c r="C55" s="4">
+        <f t="shared" si="0"/>
         <v>0.22781781176082294</v>
       </c>
       <c r="D55" s="1">
         <v>16290</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.44804444688926781</v>
       </c>
       <c r="F55" s="1">
         <v>11785</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="4">
         <f t="shared" si="2"/>
         <v>0.32413774134990925</v>
       </c>
@@ -2436,21 +2437,21 @@
       <c r="B56" s="1">
         <v>146585</v>
       </c>
-      <c r="C56" s="2">
-        <f t="shared" si="3"/>
+      <c r="C56" s="4">
+        <f t="shared" si="0"/>
         <v>0.41780082029591076</v>
       </c>
       <c r="D56" s="1">
         <v>71502</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.20379707509498388</v>
       </c>
       <c r="F56" s="1">
         <v>132762</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="4">
         <f t="shared" si="2"/>
         <v>0.37840210460910534</v>
       </c>
@@ -2465,21 +2466,21 @@
       <c r="B57" s="1">
         <v>2697</v>
       </c>
-      <c r="C57" s="2">
-        <f t="shared" si="3"/>
+      <c r="C57" s="4">
+        <f t="shared" si="0"/>
         <v>0.16796412779473127</v>
       </c>
       <c r="D57" s="1">
         <v>7921</v>
       </c>
       <c r="E57" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.49330510057918664</v>
       </c>
       <c r="F57" s="1">
         <v>5439</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="4">
         <f t="shared" si="2"/>
         <v>0.33873077162608206</v>
       </c>
@@ -2494,21 +2495,21 @@
       <c r="B58" s="1">
         <v>2087</v>
       </c>
-      <c r="C58" s="2">
-        <f t="shared" si="3"/>
+      <c r="C58" s="4">
+        <f t="shared" si="0"/>
         <v>0.22026385224274406</v>
       </c>
       <c r="D58" s="1">
         <v>3863</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.40770448548812666</v>
       </c>
       <c r="F58" s="1">
         <v>3525</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="4">
         <f t="shared" si="2"/>
         <v>0.37203166226912932</v>
       </c>
@@ -2523,21 +2524,21 @@
       <c r="B59" s="1">
         <v>120225</v>
       </c>
-      <c r="C59" s="2">
-        <f t="shared" si="3"/>
+      <c r="C59" s="4">
+        <f t="shared" si="0"/>
         <v>0.4011939880134015</v>
       </c>
       <c r="D59" s="1">
         <v>31519</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.10517973223700895</v>
       </c>
       <c r="F59" s="1">
         <v>147924</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="4">
         <f t="shared" si="2"/>
         <v>0.49362627974958956</v>
       </c>
@@ -2552,21 +2553,21 @@
       <c r="B60" s="1">
         <v>224497</v>
       </c>
-      <c r="C60" s="2">
-        <f t="shared" si="3"/>
+      <c r="C60" s="4">
+        <f t="shared" si="0"/>
         <v>0.40082021946316154</v>
       </c>
       <c r="D60" s="1">
         <v>69059</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.12329894624830832</v>
       </c>
       <c r="F60" s="1">
         <v>266538</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="4">
         <f t="shared" si="2"/>
         <v>0.47588083428853012</v>
       </c>
@@ -2581,21 +2582,21 @@
       <c r="B61" s="1">
         <v>272196</v>
       </c>
-      <c r="C61" s="2">
-        <f t="shared" si="3"/>
+      <c r="C61" s="4">
+        <f t="shared" si="0"/>
         <v>0.53980045731012016</v>
       </c>
       <c r="D61" s="1">
         <v>60940</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.12085203261061411</v>
       </c>
       <c r="F61" s="1">
         <v>171117</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="4">
         <f t="shared" si="2"/>
         <v>0.33934751007926578</v>
       </c>
@@ -2610,21 +2611,21 @@
       <c r="B62" s="1">
         <v>229776</v>
       </c>
-      <c r="C62" s="2">
-        <f t="shared" si="3"/>
+      <c r="C62" s="4">
+        <f t="shared" si="0"/>
         <v>0.44114818021767888</v>
       </c>
       <c r="D62" s="1">
         <v>79221</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.15209682466848035</v>
       </c>
       <c r="F62" s="1">
         <v>211862</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="4">
         <f t="shared" si="2"/>
         <v>0.40675499511384078</v>
       </c>
@@ -2639,21 +2640,21 @@
       <c r="B63" s="1">
         <v>67296</v>
       </c>
-      <c r="C63" s="2">
-        <f t="shared" si="3"/>
+      <c r="C63" s="4">
+        <f t="shared" si="0"/>
         <v>0.51886290565077597</v>
       </c>
       <c r="D63" s="1">
         <v>21614</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.16664739126747316</v>
       </c>
       <c r="F63" s="1">
         <v>40789</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="4">
         <f t="shared" si="2"/>
         <v>0.31448970308175084</v>
       </c>
@@ -2671,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E243E6-10D7-BC43-9A06-280E9D4F0871}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2723,14 +2724,14 @@
       <c r="D2" s="1">
         <v>60001</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E33" si="1">D2/H2</f>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E63" si="1">D2/H2</f>
         <v>0.41948474149683646</v>
       </c>
       <c r="F2" s="1">
         <v>44272</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <f>F2/H2</f>
         <v>0.30951864928164435</v>
       </c>
@@ -2752,14 +2753,14 @@
       <c r="D3" s="1">
         <v>7769</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <f t="shared" si="1"/>
         <v>0.43132356206973127</v>
       </c>
       <c r="F3" s="1">
         <v>6362</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <f t="shared" ref="G3:G63" si="2">F3/H3</f>
         <v>0.35320897179658006</v>
       </c>
@@ -2781,14 +2782,14 @@
       <c r="D4" s="1">
         <v>36785</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <f t="shared" si="1"/>
         <v>0.41665722764651247</v>
       </c>
       <c r="F4" s="1">
         <v>32692</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <f t="shared" si="2"/>
         <v>0.37029653625716424</v>
       </c>
@@ -2810,14 +2811,14 @@
       <c r="D5" s="1">
         <v>13686</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <f t="shared" si="1"/>
         <v>0.42715355805243443</v>
       </c>
       <c r="F5" s="1">
         <v>11030</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <f t="shared" si="2"/>
         <v>0.34425717852684146</v>
       </c>
@@ -2839,14 +2840,14 @@
       <c r="D6" s="1">
         <v>15571</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <f t="shared" si="1"/>
         <v>0.48028994447871687</v>
       </c>
       <c r="F6" s="1">
         <v>11301</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <f t="shared" si="2"/>
         <v>0.3485811227637261</v>
       </c>
@@ -2868,14 +2869,14 @@
       <c r="D7" s="1">
         <v>24571</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <f t="shared" si="1"/>
         <v>0.43296916299559474</v>
       </c>
       <c r="F7" s="1">
         <v>20455</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <f t="shared" si="2"/>
         <v>0.36044052863436121</v>
       </c>
@@ -2897,14 +2898,14 @@
       <c r="D8" s="1">
         <v>13827</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <f t="shared" si="1"/>
         <v>0.38211966284371979</v>
       </c>
       <c r="F8" s="1">
         <v>16065</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <f t="shared" si="2"/>
         <v>0.44396849523283127</v>
       </c>
@@ -2926,14 +2927,14 @@
       <c r="D9" s="1">
         <v>8656</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <f t="shared" si="1"/>
         <v>0.44280744833231023</v>
       </c>
       <c r="F9" s="1">
         <v>7491</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <f t="shared" si="2"/>
         <v>0.38321055862492326</v>
       </c>
@@ -2955,14 +2956,14 @@
       <c r="D10" s="1">
         <v>8618</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <f t="shared" si="1"/>
         <v>0.29155248824385127</v>
       </c>
       <c r="F10" s="1">
         <v>9028</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <f t="shared" si="2"/>
         <v>0.30542305220068339</v>
       </c>
@@ -2987,14 +2988,14 @@
       <c r="D11" s="1">
         <v>10988</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <f t="shared" si="1"/>
         <v>0.39393396192593122</v>
       </c>
       <c r="F11" s="1">
         <v>9737</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <f t="shared" si="2"/>
         <v>0.34908399956978453</v>
       </c>
@@ -3016,14 +3017,14 @@
       <c r="D12" s="1">
         <v>8990</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <f t="shared" si="1"/>
         <v>0.45553585001266783</v>
       </c>
       <c r="F12" s="1">
         <v>5937</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <f t="shared" si="2"/>
         <v>0.30083607803394985</v>
       </c>
@@ -3045,14 +3046,14 @@
       <c r="D13" s="1">
         <v>9371</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <f t="shared" si="1"/>
         <v>0.47677435766980414</v>
       </c>
       <c r="F13" s="1">
         <v>6736</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="4">
         <f t="shared" si="2"/>
         <v>0.34271177817349274</v>
       </c>
@@ -3074,14 +3075,14 @@
       <c r="D14" s="1">
         <v>26566</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <f t="shared" si="1"/>
         <v>0.25394549434582703</v>
       </c>
       <c r="F14" s="1">
         <v>38841</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="4">
         <f t="shared" si="2"/>
         <v>0.37128272776805943</v>
       </c>
@@ -3103,14 +3104,14 @@
       <c r="D15" s="1">
         <v>155580</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <f t="shared" si="1"/>
         <v>0.37521886561289608</v>
       </c>
       <c r="F15" s="1">
         <v>155488</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="4">
         <f t="shared" si="2"/>
         <v>0.37499698532213643</v>
       </c>
@@ -3132,14 +3133,14 @@
       <c r="D16" s="1">
         <v>6573</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <f t="shared" si="1"/>
         <v>0.38133085803794164</v>
       </c>
       <c r="F16" s="1">
         <v>5649</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <f t="shared" si="2"/>
         <v>0.32772524221152172</v>
       </c>
@@ -3161,14 +3162,14 @@
       <c r="D17" s="1">
         <v>6309</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <f t="shared" si="1"/>
         <v>0.37942025499158044</v>
       </c>
       <c r="F17" s="1">
         <v>5509</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="4">
         <f t="shared" si="2"/>
         <v>0.33130863603560262</v>
       </c>
@@ -3190,14 +3191,14 @@
       <c r="D18" s="1">
         <v>13112</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <f t="shared" si="1"/>
         <v>0.61741300560342793</v>
       </c>
       <c r="F18" s="1">
         <v>4327</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="4">
         <f t="shared" si="2"/>
         <v>0.20374817535433443</v>
       </c>
@@ -3219,14 +3220,14 @@
       <c r="D19" s="1">
         <v>11055</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <f t="shared" si="1"/>
         <v>0.44884287454323996</v>
       </c>
       <c r="F19" s="1">
         <v>9416</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="4">
         <f t="shared" si="2"/>
         <v>0.38229801055623225</v>
       </c>
@@ -3248,14 +3249,14 @@
       <c r="D20" s="1">
         <v>9020</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <f t="shared" si="1"/>
         <v>0.44211351828252132</v>
       </c>
       <c r="F20" s="1">
         <v>6205</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="4">
         <f t="shared" si="2"/>
         <v>0.30413684932849722</v>
       </c>
@@ -3277,14 +3278,14 @@
       <c r="D21" s="1">
         <v>2254</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <f t="shared" si="1"/>
         <v>0.61534261534261536</v>
       </c>
       <c r="F21" s="1">
         <v>738</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="4">
         <f t="shared" si="2"/>
         <v>0.20147420147420148</v>
       </c>
@@ -3306,14 +3307,14 @@
       <c r="D22" s="1">
         <v>11255</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <f t="shared" si="1"/>
         <v>0.4188062811639503</v>
       </c>
       <c r="F22" s="1">
         <v>10366</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="4">
         <f t="shared" si="2"/>
         <v>0.38572598050160006</v>
       </c>
@@ -3335,14 +3336,14 @@
       <c r="D23" s="1">
         <v>15339</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <f t="shared" si="1"/>
         <v>0.44669326421852706</v>
       </c>
       <c r="F23" s="1">
         <v>12664</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="4">
         <f t="shared" si="2"/>
         <v>0.36879350010192491</v>
       </c>
@@ -3364,14 +3365,14 @@
       <c r="D24" s="1">
         <v>5150</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <f t="shared" si="1"/>
         <v>0.49927290353853609</v>
       </c>
       <c r="F24" s="1">
         <v>3860</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="4">
         <f t="shared" si="2"/>
         <v>0.37421231216674744</v>
       </c>
@@ -3393,14 +3394,14 @@
       <c r="D25" s="1">
         <v>11707</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <f t="shared" si="1"/>
         <v>0.46065160934917759</v>
       </c>
       <c r="F25" s="1">
         <v>8274</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="4">
         <f t="shared" si="2"/>
         <v>0.32556858424490437</v>
       </c>
@@ -3422,14 +3423,14 @@
       <c r="D26" s="1">
         <v>12829</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="4">
         <f t="shared" si="1"/>
         <v>0.4705127264725299</v>
       </c>
       <c r="F26" s="1">
         <v>9051</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="4">
         <f t="shared" si="2"/>
         <v>0.33195188146409449</v>
       </c>
@@ -3451,14 +3452,14 @@
       <c r="D27" s="1">
         <v>114527</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="4">
         <f t="shared" si="1"/>
         <v>0.36582031437159218</v>
       </c>
       <c r="F27" s="1">
         <v>116014</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="4">
         <f t="shared" si="2"/>
         <v>0.3705700660237839</v>
       </c>
@@ -3480,14 +3481,14 @@
       <c r="D28" s="1">
         <v>11198</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="4">
         <f t="shared" si="1"/>
         <v>0.52388304093567251</v>
       </c>
       <c r="F28" s="1">
         <v>6395</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="4">
         <f t="shared" si="2"/>
         <v>0.2991812865497076</v>
       </c>
@@ -3509,14 +3510,14 @@
       <c r="D29" s="1">
         <v>87842</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="4">
         <f t="shared" si="1"/>
         <v>0.15945151669719243</v>
       </c>
       <c r="F29" s="1">
         <v>251186</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="4">
         <f t="shared" si="2"/>
         <v>0.45595488118554878</v>
       </c>
@@ -3538,14 +3539,14 @@
       <c r="D30" s="1">
         <v>43060</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="4">
         <f t="shared" si="1"/>
         <v>0.47718784977337458</v>
       </c>
       <c r="F30" s="1">
         <v>26420</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="4">
         <f t="shared" si="2"/>
         <v>0.29278455622416527</v>
       </c>
@@ -3567,14 +3568,14 @@
       <c r="D31" s="1">
         <v>35445</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="4">
         <f t="shared" si="1"/>
         <v>0.37007454739084134</v>
       </c>
       <c r="F31" s="1">
         <v>41619</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="4">
         <f t="shared" si="2"/>
         <v>0.434536114765395</v>
       </c>
@@ -3596,14 +3597,14 @@
       <c r="D32" s="1">
         <v>89630</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="4">
         <f t="shared" si="1"/>
         <v>0.45614856508883267</v>
       </c>
       <c r="F32" s="1">
         <v>57391</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="4">
         <f t="shared" si="2"/>
         <v>0.29207656252385583</v>
       </c>
@@ -3625,14 +3626,14 @@
       <c r="D33" s="1">
         <v>19606</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="4">
         <f t="shared" si="1"/>
         <v>0.47006641252487474</v>
       </c>
       <c r="F33" s="1">
         <v>12831</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="4">
         <f t="shared" si="2"/>
         <v>0.30763144645040641</v>
       </c>
@@ -3654,14 +3655,14 @@
       <c r="D34" s="1">
         <v>26536</v>
       </c>
-      <c r="E34" s="2">
-        <f t="shared" ref="E34:E63" si="4">D34/H34</f>
+      <c r="E34" s="4">
+        <f t="shared" si="1"/>
         <v>0.22851041110517886</v>
       </c>
       <c r="F34" s="1">
         <v>49321</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="4">
         <f t="shared" si="2"/>
         <v>0.42471970101441536</v>
       </c>
@@ -3683,14 +3684,14 @@
       <c r="D35" s="1">
         <v>7009</v>
       </c>
-      <c r="E35" s="2">
-        <f t="shared" si="4"/>
+      <c r="E35" s="4">
+        <f t="shared" si="1"/>
         <v>0.45353953668953023</v>
       </c>
       <c r="F35" s="1">
         <v>5559</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="4">
         <f t="shared" si="2"/>
         <v>0.35971269574220266</v>
       </c>
@@ -3712,14 +3713,14 @@
       <c r="D36" s="1">
         <v>21606</v>
       </c>
-      <c r="E36" s="2">
-        <f t="shared" si="4"/>
+      <c r="E36" s="4">
+        <f t="shared" si="1"/>
         <v>0.46759149046681237</v>
       </c>
       <c r="F36" s="1">
         <v>16734</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="4">
         <f t="shared" si="2"/>
         <v>0.36215292055316295</v>
       </c>
@@ -3741,14 +3742,14 @@
       <c r="D37" s="1">
         <v>10800</v>
       </c>
-      <c r="E37" s="2">
-        <f t="shared" si="4"/>
+      <c r="E37" s="4">
+        <f t="shared" si="1"/>
         <v>0.44280442804428044</v>
       </c>
       <c r="F37" s="1">
         <v>8023</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="4">
         <f t="shared" si="2"/>
         <v>0.32894628946289461</v>
       </c>
@@ -3770,14 +3771,14 @@
       <c r="D38" s="1">
         <v>10985</v>
       </c>
-      <c r="E38" s="2">
-        <f t="shared" si="4"/>
+      <c r="E38" s="4">
+        <f t="shared" si="1"/>
         <v>0.28249967853928248</v>
       </c>
       <c r="F38" s="1">
         <v>15519</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="4">
         <f t="shared" si="2"/>
         <v>0.39909990999099909</v>
       </c>
@@ -3799,14 +3800,14 @@
       <c r="D39" s="1">
         <v>32766</v>
       </c>
-      <c r="E39" s="2">
-        <f t="shared" si="4"/>
+      <c r="E39" s="4">
+        <f t="shared" si="1"/>
         <v>0.4762846137073915</v>
       </c>
       <c r="F39" s="1">
         <v>19817</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="4">
         <f t="shared" si="2"/>
         <v>0.2880587251980522</v>
       </c>
@@ -3828,14 +3829,14 @@
       <c r="D40" s="1">
         <v>29437</v>
       </c>
-      <c r="E40" s="2">
-        <f t="shared" si="4"/>
+      <c r="E40" s="4">
+        <f t="shared" si="1"/>
         <v>0.25892794314263601</v>
       </c>
       <c r="F40" s="1">
         <v>32834</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="4">
         <f t="shared" si="2"/>
         <v>0.2888079656604039</v>
       </c>
@@ -3857,14 +3858,14 @@
       <c r="D41" s="1">
         <v>17165</v>
       </c>
-      <c r="E41" s="2">
-        <f t="shared" si="4"/>
+      <c r="E41" s="4">
+        <f t="shared" si="1"/>
         <v>0.43974483783368346</v>
       </c>
       <c r="F41" s="1">
         <v>12108</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="4">
         <f t="shared" si="2"/>
         <v>0.31019111543782346</v>
       </c>
@@ -3886,14 +3887,14 @@
       <c r="D42" s="1">
         <v>40567</v>
       </c>
-      <c r="E42" s="2">
-        <f t="shared" si="4"/>
+      <c r="E42" s="4">
+        <f t="shared" si="1"/>
         <v>0.46799257063091954</v>
       </c>
       <c r="F42" s="1">
         <v>23021</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="4">
         <f t="shared" si="2"/>
         <v>0.26557687205103653</v>
       </c>
@@ -3915,14 +3916,14 @@
       <c r="D43" s="1">
         <v>31438</v>
       </c>
-      <c r="E43" s="2">
-        <f t="shared" si="4"/>
+      <c r="E43" s="4">
+        <f t="shared" si="1"/>
         <v>0.46659146902549792</v>
       </c>
       <c r="F43" s="1">
         <v>19623</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="4">
         <f t="shared" si="2"/>
         <v>0.29123749591854908</v>
       </c>
@@ -3944,14 +3945,14 @@
       <c r="D44" s="1">
         <v>7285</v>
       </c>
-      <c r="E44" s="2">
-        <f t="shared" si="4"/>
+      <c r="E44" s="4">
+        <f t="shared" si="1"/>
         <v>0.54398148148148151</v>
       </c>
       <c r="F44" s="1">
         <v>3505</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="4">
         <f t="shared" si="2"/>
         <v>0.26172341696535245</v>
       </c>
@@ -3973,14 +3974,14 @@
       <c r="D45" s="1">
         <v>4034</v>
       </c>
-      <c r="E45" s="2">
-        <f t="shared" si="4"/>
+      <c r="E45" s="4">
+        <f t="shared" si="1"/>
         <v>0.52018052869116704</v>
       </c>
       <c r="F45" s="1">
         <v>1886</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="4">
         <f t="shared" si="2"/>
         <v>0.2431979368149581</v>
       </c>
@@ -4002,14 +4003,14 @@
       <c r="D46" s="1">
         <v>6223</v>
       </c>
-      <c r="E46" s="2">
-        <f t="shared" si="4"/>
+      <c r="E46" s="4">
+        <f t="shared" si="1"/>
         <v>0.44203722119619265</v>
       </c>
       <c r="F46" s="1">
         <v>4543</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="4">
         <f t="shared" si="2"/>
         <v>0.32270208836482456</v>
       </c>
@@ -4031,14 +4032,14 @@
       <c r="D47" s="1">
         <v>15025</v>
       </c>
-      <c r="E47" s="2">
-        <f t="shared" si="4"/>
+      <c r="E47" s="4">
+        <f t="shared" si="1"/>
         <v>0.39025974025974025</v>
       </c>
       <c r="F47" s="1">
         <v>15394</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="4">
         <f t="shared" si="2"/>
         <v>0.39984415584415584</v>
       </c>
@@ -4060,14 +4061,14 @@
       <c r="D48" s="1">
         <v>141810</v>
       </c>
-      <c r="E48" s="2">
-        <f t="shared" si="4"/>
+      <c r="E48" s="4">
+        <f t="shared" si="1"/>
         <v>0.27725695293025077</v>
       </c>
       <c r="F48" s="1">
         <v>133475</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="4">
         <f t="shared" si="2"/>
         <v>0.26096094628280952</v>
       </c>
@@ -4089,14 +4090,14 @@
       <c r="D49" s="1">
         <v>7369</v>
       </c>
-      <c r="E49" s="2">
-        <f t="shared" si="4"/>
+      <c r="E49" s="4">
+        <f t="shared" si="1"/>
         <v>0.25636654606178683</v>
       </c>
       <c r="F49" s="1">
         <v>12654</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="4">
         <f t="shared" si="2"/>
         <v>0.44023100473142224</v>
       </c>
@@ -4118,14 +4119,14 @@
       <c r="D50" s="1">
         <v>10115</v>
       </c>
-      <c r="E50" s="2">
-        <f t="shared" si="4"/>
+      <c r="E50" s="4">
+        <f t="shared" si="1"/>
         <v>0.47132006896230372</v>
       </c>
       <c r="F50" s="1">
         <v>7076</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="4">
         <f t="shared" si="2"/>
         <v>0.329714365593402</v>
       </c>
@@ -4147,14 +4148,14 @@
       <c r="D51" s="1">
         <v>13265</v>
       </c>
-      <c r="E51" s="2">
-        <f t="shared" si="4"/>
+      <c r="E51" s="4">
+        <f t="shared" si="1"/>
         <v>0.35381824971326453</v>
       </c>
       <c r="F51" s="1">
         <v>10687</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="4">
         <f t="shared" si="2"/>
         <v>0.28505507988583928</v>
       </c>
@@ -4176,14 +4177,14 @@
       <c r="D52" s="1">
         <v>20884</v>
       </c>
-      <c r="E52" s="2">
-        <f t="shared" si="4"/>
+      <c r="E52" s="4">
+        <f t="shared" si="1"/>
         <v>0.27928000213966675</v>
       </c>
       <c r="F52" s="1">
         <v>26808</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="4">
         <f t="shared" si="2"/>
         <v>0.35850116344379362</v>
       </c>
@@ -4205,14 +4206,14 @@
       <c r="D53" s="1">
         <v>14278</v>
       </c>
-      <c r="E53" s="2">
-        <f t="shared" si="4"/>
+      <c r="E53" s="4">
+        <f t="shared" si="1"/>
         <v>0.52854075664470279</v>
       </c>
       <c r="F53" s="1">
         <v>5809</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="4">
         <f t="shared" si="2"/>
         <v>0.21503664766417413</v>
       </c>
@@ -4234,14 +4235,14 @@
       <c r="D54" s="1">
         <v>11509</v>
       </c>
-      <c r="E54" s="2">
-        <f t="shared" si="4"/>
+      <c r="E54" s="4">
+        <f t="shared" si="1"/>
         <v>0.50194077369270351</v>
       </c>
       <c r="F54" s="1">
         <v>7150</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="4">
         <f t="shared" si="2"/>
         <v>0.31183217759169612</v>
       </c>
@@ -4263,14 +4264,14 @@
       <c r="D55" s="1">
         <v>16290</v>
       </c>
-      <c r="E55" s="2">
-        <f t="shared" si="4"/>
+      <c r="E55" s="4">
+        <f t="shared" si="1"/>
         <v>0.44804444688926781</v>
       </c>
       <c r="F55" s="1">
         <v>11785</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="4">
         <f t="shared" si="2"/>
         <v>0.32413774134990925</v>
       </c>
@@ -4292,14 +4293,14 @@
       <c r="D56" s="1">
         <v>71502</v>
       </c>
-      <c r="E56" s="2">
-        <f t="shared" si="4"/>
+      <c r="E56" s="4">
+        <f t="shared" si="1"/>
         <v>0.20379707509498388</v>
       </c>
       <c r="F56" s="1">
         <v>132762</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="4">
         <f t="shared" si="2"/>
         <v>0.37840210460910534</v>
       </c>
@@ -4321,14 +4322,14 @@
       <c r="D57" s="1">
         <v>7921</v>
       </c>
-      <c r="E57" s="2">
-        <f t="shared" si="4"/>
+      <c r="E57" s="4">
+        <f t="shared" si="1"/>
         <v>0.49330510057918664</v>
       </c>
       <c r="F57" s="1">
         <v>5439</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="4">
         <f t="shared" si="2"/>
         <v>0.33873077162608206</v>
       </c>
@@ -4350,14 +4351,14 @@
       <c r="D58" s="1">
         <v>3863</v>
       </c>
-      <c r="E58" s="2">
-        <f t="shared" si="4"/>
+      <c r="E58" s="4">
+        <f t="shared" si="1"/>
         <v>0.40770448548812666</v>
       </c>
       <c r="F58" s="1">
         <v>3525</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="4">
         <f t="shared" si="2"/>
         <v>0.37203166226912932</v>
       </c>
@@ -4379,14 +4380,14 @@
       <c r="D59" s="1">
         <v>31519</v>
       </c>
-      <c r="E59" s="2">
-        <f t="shared" si="4"/>
+      <c r="E59" s="4">
+        <f t="shared" si="1"/>
         <v>0.10517973223700895</v>
       </c>
       <c r="F59" s="1">
         <v>147924</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="4">
         <f t="shared" si="2"/>
         <v>0.49362627974958956</v>
       </c>
@@ -4408,14 +4409,14 @@
       <c r="D60" s="1">
         <v>69059</v>
       </c>
-      <c r="E60" s="2">
-        <f t="shared" si="4"/>
+      <c r="E60" s="4">
+        <f t="shared" si="1"/>
         <v>0.12329894624830832</v>
       </c>
       <c r="F60" s="1">
         <v>266538</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="4">
         <f t="shared" si="2"/>
         <v>0.47588083428853012</v>
       </c>
@@ -4437,14 +4438,14 @@
       <c r="D61" s="1">
         <v>60940</v>
       </c>
-      <c r="E61" s="2">
-        <f t="shared" si="4"/>
+      <c r="E61" s="4">
+        <f t="shared" si="1"/>
         <v>0.12085203261061411</v>
       </c>
       <c r="F61" s="1">
         <v>171117</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="4">
         <f t="shared" si="2"/>
         <v>0.33934751007926578</v>
       </c>
@@ -4466,14 +4467,14 @@
       <c r="D62" s="1">
         <v>79221</v>
       </c>
-      <c r="E62" s="2">
-        <f t="shared" si="4"/>
+      <c r="E62" s="4">
+        <f t="shared" si="1"/>
         <v>0.15209682466848035</v>
       </c>
       <c r="F62" s="1">
         <v>211862</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="4">
         <f t="shared" si="2"/>
         <v>0.40675499511384078</v>
       </c>
@@ -4495,14 +4496,14 @@
       <c r="D63" s="1">
         <v>21614</v>
       </c>
-      <c r="E63" s="2">
-        <f t="shared" si="4"/>
+      <c r="E63" s="4">
+        <f t="shared" si="1"/>
         <v>0.16664739126747316</v>
       </c>
       <c r="F63" s="1">
         <v>40789</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="4">
         <f t="shared" si="2"/>
         <v>0.31448970308175084</v>
       </c>
@@ -4519,8 +4520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEA90EF-CBC6-684B-92CF-36185F1AFF29}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4556,7 +4557,7 @@
       <c r="H1" t="s">
         <v>134</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>106</v>
       </c>
       <c r="J1" t="s">
@@ -4570,15 +4571,15 @@
       <c r="B2" s="1">
         <v>77190</v>
       </c>
-      <c r="C2" s="2">
-        <f t="shared" ref="C2:C33" si="0">B2/J2</f>
+      <c r="C2" s="4">
+        <f t="shared" ref="C2:C63" si="0">B2/J2</f>
         <v>0.65535773413820331</v>
       </c>
       <c r="D2" s="1">
         <v>34565</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E33" si="1">D2/J2</f>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E63" si="1">D2/J2</f>
         <v>0.29346340303778984</v>
       </c>
       <c r="F2" s="1">
@@ -4591,7 +4592,7 @@
         <f t="shared" ref="H2:H33" si="2">SUM(F2,G2)</f>
         <v>6028</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="4">
         <f>H2/J2</f>
         <v>5.1178862824006861E-2</v>
       </c>
@@ -4606,14 +4607,14 @@
       <c r="B3" s="1">
         <v>5962</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <f t="shared" si="0"/>
         <v>0.38326047827204934</v>
       </c>
       <c r="D3" s="1">
         <v>8454</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <f t="shared" si="1"/>
         <v>0.54345590125996401</v>
       </c>
@@ -4627,7 +4628,7 @@
         <f t="shared" si="2"/>
         <v>1140</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <f t="shared" ref="I3:I63" si="3">H3/J3</f>
         <v>7.3283620467986629E-2</v>
       </c>
@@ -4642,14 +4643,14 @@
       <c r="B4" s="1">
         <v>140266</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
         <v>0.72180025523856572</v>
       </c>
       <c r="D4" s="1">
         <v>18357</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <f t="shared" si="1"/>
         <v>9.4463999011979743E-2</v>
       </c>
@@ -4663,7 +4664,7 @@
         <f t="shared" si="2"/>
         <v>35705</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4">
         <f t="shared" si="3"/>
         <v>0.18373574574945453</v>
       </c>
@@ -4678,14 +4679,14 @@
       <c r="B5" s="1">
         <v>38173</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>0.5683635334931435</v>
       </c>
       <c r="D5" s="1">
         <v>24821</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <f t="shared" si="1"/>
         <v>0.36956359900540475</v>
       </c>
@@ -4699,7 +4700,7 @@
         <f t="shared" si="2"/>
         <v>4169</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <f t="shared" si="3"/>
         <v>6.207286750145169E-2</v>
       </c>
@@ -4714,14 +4715,14 @@
       <c r="B6" s="1">
         <v>10258</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>0.39967271877191618</v>
       </c>
       <c r="D6" s="1">
         <v>13237</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <f t="shared" si="1"/>
         <v>0.51574066858879453</v>
       </c>
@@ -4735,7 +4736,7 @@
         <f t="shared" si="2"/>
         <v>2171</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <f t="shared" si="3"/>
         <v>8.4586612639289335E-2</v>
       </c>
@@ -4750,14 +4751,14 @@
       <c r="B7" s="1">
         <v>13908</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>0.52128935532233878</v>
       </c>
       <c r="D7" s="1">
         <v>11425</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <f t="shared" si="1"/>
         <v>0.42822338830584705</v>
       </c>
@@ -4771,7 +4772,7 @@
         <f t="shared" si="2"/>
         <v>1347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="4">
         <f t="shared" si="3"/>
         <v>5.0487256371814095E-2</v>
       </c>
@@ -4786,14 +4787,14 @@
       <c r="B8" s="1">
         <v>20262</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>0.46987616529845555</v>
       </c>
       <c r="D8" s="1">
         <v>20559</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <f t="shared" si="1"/>
         <v>0.47676360094615278</v>
       </c>
@@ -4807,7 +4808,7 @@
         <f t="shared" si="2"/>
         <v>2292</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
         <f t="shared" si="3"/>
         <v>5.3151523584249342E-2</v>
       </c>
@@ -4822,14 +4823,14 @@
       <c r="B9" s="1">
         <v>13971</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>0.51011391850445453</v>
       </c>
       <c r="D9" s="1">
         <v>11330</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <f t="shared" si="1"/>
         <v>0.41368482547100921</v>
       </c>
@@ -4843,7 +4844,7 @@
         <f t="shared" si="2"/>
         <v>2087</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="4">
         <f t="shared" si="3"/>
         <v>7.6201256024536299E-2</v>
       </c>
@@ -4858,14 +4859,14 @@
       <c r="B10" s="1">
         <v>5921</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>0.35160332541567696</v>
       </c>
       <c r="D10" s="1">
         <v>6585</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <f t="shared" si="1"/>
         <v>0.39103325415676959</v>
       </c>
@@ -4879,7 +4880,7 @@
         <f t="shared" si="2"/>
         <v>4334</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
         <f t="shared" si="3"/>
         <v>0.25736342042755345</v>
       </c>
@@ -4894,14 +4895,14 @@
       <c r="B11" s="1">
         <v>14638</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>0.53889482015977619</v>
       </c>
       <c r="D11" s="1">
         <v>9875</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <f t="shared" si="1"/>
         <v>0.36354600007362958</v>
       </c>
@@ -4915,7 +4916,7 @@
         <f t="shared" si="2"/>
         <v>2650</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
         <f t="shared" si="3"/>
         <v>9.755917976659427E-2</v>
       </c>
@@ -4930,14 +4931,14 @@
       <c r="B12" s="1">
         <v>17551</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>0.5992761293406631</v>
       </c>
       <c r="D12" s="1">
         <v>10194</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <f t="shared" si="1"/>
         <v>0.34807252364530339</v>
       </c>
@@ -4951,7 +4952,7 @@
         <f t="shared" si="2"/>
         <v>1542</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="4">
         <f t="shared" si="3"/>
         <v>5.2651347014033532E-2</v>
       </c>
@@ -4966,14 +4967,14 @@
       <c r="B13" s="1">
         <v>8479</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>0.52191308629816568</v>
       </c>
       <c r="D13" s="1">
         <v>6244</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <f t="shared" si="1"/>
         <v>0.38434076080265911</v>
       </c>
@@ -4987,7 +4988,7 @@
         <f t="shared" si="2"/>
         <v>1523</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="4">
         <f t="shared" si="3"/>
         <v>9.3746152899175178E-2</v>
       </c>
@@ -5002,14 +5003,14 @@
       <c r="B14" s="1">
         <v>8348</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>0.45697394350777315</v>
       </c>
       <c r="D14" s="1">
         <v>8769</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <f t="shared" si="1"/>
         <v>0.48001970659075982</v>
       </c>
@@ -5023,7 +5024,7 @@
         <f t="shared" si="2"/>
         <v>1151</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="4">
         <f t="shared" si="3"/>
         <v>6.3006349901467043E-2</v>
       </c>
@@ -5038,14 +5039,14 @@
       <c r="B15" s="1">
         <v>66794</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>0.58401168128284264</v>
       </c>
       <c r="D15" s="1">
         <v>40743</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <f t="shared" si="1"/>
         <v>0.35623540932579062</v>
       </c>
@@ -5059,7 +5060,7 @@
         <f t="shared" si="2"/>
         <v>6834</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="4">
         <f t="shared" si="3"/>
         <v>5.9752909391366696E-2</v>
       </c>
@@ -5074,14 +5075,14 @@
       <c r="B16" s="1">
         <v>175468</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>0.51936043379684715</v>
       </c>
       <c r="D16" s="1">
         <v>101167</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <f t="shared" si="1"/>
         <v>0.2994399947906492</v>
       </c>
@@ -5095,7 +5096,7 @@
         <f t="shared" si="2"/>
         <v>61219</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="4">
         <f t="shared" si="3"/>
         <v>0.18119957141250362</v>
       </c>
@@ -5110,14 +5111,14 @@
       <c r="B17" s="1">
         <v>8408</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>0.54367927578402842</v>
       </c>
       <c r="D17" s="1">
         <v>5501</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <f t="shared" si="1"/>
         <v>0.35570643388296153</v>
       </c>
@@ -5131,7 +5132,7 @@
         <f t="shared" si="2"/>
         <v>1556</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="4">
         <f t="shared" si="3"/>
         <v>0.10061429033301002</v>
       </c>
@@ -5146,14 +5147,14 @@
       <c r="B18" s="1">
         <v>7374</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>0.4923549442478467</v>
       </c>
       <c r="D18" s="1">
         <v>5543</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <f t="shared" si="1"/>
         <v>0.37010082125926419</v>
       </c>
@@ -5167,7 +5168,7 @@
         <f t="shared" si="2"/>
         <v>2060</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="4">
         <f t="shared" si="3"/>
         <v>0.13754423449288911</v>
       </c>
@@ -5182,14 +5183,14 @@
       <c r="B19" s="1">
         <v>7633</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>0.40424743141616354</v>
       </c>
       <c r="D19" s="1">
         <v>8987</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <f t="shared" si="1"/>
         <v>0.47595593687109417</v>
       </c>
@@ -5203,7 +5204,7 @@
         <f t="shared" si="2"/>
         <v>2262</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="4">
         <f t="shared" si="3"/>
         <v>0.1197966317127423</v>
       </c>
@@ -5218,14 +5219,14 @@
       <c r="B20" s="1">
         <v>8977</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <f t="shared" si="0"/>
         <v>0.40739732244157023</v>
       </c>
       <c r="D20" s="1">
         <v>11524</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <f t="shared" si="1"/>
         <v>0.52298615838438844</v>
       </c>
@@ -5239,7 +5240,7 @@
         <f t="shared" si="2"/>
         <v>1534</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="4">
         <f t="shared" si="3"/>
         <v>6.9616519174041297E-2</v>
       </c>
@@ -5254,14 +5255,14 @@
       <c r="B21" s="1">
         <v>9682</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <f t="shared" si="0"/>
         <v>0.48805323117249721</v>
       </c>
       <c r="D21" s="1">
         <v>8728</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <f t="shared" si="1"/>
         <v>0.4399637060187519</v>
       </c>
@@ -5275,7 +5276,7 @@
         <f t="shared" si="2"/>
         <v>1428</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="4">
         <f t="shared" si="3"/>
         <v>7.1983062808750886E-2</v>
       </c>
@@ -5290,14 +5291,14 @@
       <c r="B22" s="1">
         <v>1076</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <f t="shared" si="0"/>
         <v>0.36988655895496736</v>
       </c>
       <c r="D22" s="1">
         <v>1485</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <f t="shared" si="1"/>
         <v>0.51048470264695767</v>
       </c>
@@ -5311,7 +5312,7 @@
         <f t="shared" si="2"/>
         <v>348</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="4">
         <f t="shared" si="3"/>
         <v>0.11962873839807495</v>
       </c>
@@ -5326,14 +5327,14 @@
       <c r="B23" s="1">
         <v>9525</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <f t="shared" si="0"/>
         <v>0.4337036699754121</v>
       </c>
       <c r="D23" s="1">
         <v>10734</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <f t="shared" si="1"/>
         <v>0.48875330115654314</v>
       </c>
@@ -5347,7 +5348,7 @@
         <f t="shared" si="2"/>
         <v>1703</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="4">
         <f t="shared" si="3"/>
         <v>7.7543028868044803E-2</v>
       </c>
@@ -5362,14 +5363,14 @@
       <c r="B24" s="1">
         <v>14958</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <f t="shared" si="0"/>
         <v>0.47737282185485413</v>
       </c>
       <c r="D24" s="1">
         <v>13807</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <f t="shared" si="1"/>
         <v>0.44063956086040723</v>
       </c>
@@ -5383,7 +5384,7 @@
         <f t="shared" si="2"/>
         <v>2569</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="4">
         <f t="shared" si="3"/>
         <v>8.198761728473862E-2</v>
       </c>
@@ -5398,14 +5399,14 @@
       <c r="B25" s="1">
         <v>350291</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <f t="shared" si="0"/>
         <v>0.65440581675792719</v>
       </c>
       <c r="D25" s="1">
         <v>77767</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <f t="shared" si="1"/>
         <v>0.14528257121026153</v>
       </c>
@@ -5419,7 +5420,7 @@
         <f t="shared" si="2"/>
         <v>107223</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="4">
         <f t="shared" si="3"/>
         <v>0.20031161203181133</v>
       </c>
@@ -5434,14 +5435,14 @@
       <c r="B26" s="1">
         <v>3524</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>0.34383842326080594</v>
       </c>
       <c r="D26" s="1">
         <v>5559</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="4">
         <f t="shared" si="1"/>
         <v>0.54239437993950634</v>
       </c>
@@ -5455,7 +5456,7 @@
         <f t="shared" si="2"/>
         <v>1166</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="4">
         <f t="shared" si="3"/>
         <v>0.11376719679968778</v>
       </c>
@@ -5470,14 +5471,14 @@
       <c r="B27" s="1">
         <v>10789</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>0.4483647093047417</v>
       </c>
       <c r="D27" s="1">
         <v>11639</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="4">
         <f t="shared" si="1"/>
         <v>0.48368865062544153</v>
       </c>
@@ -5491,7 +5492,7 @@
         <f t="shared" si="2"/>
         <v>1635</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="4">
         <f t="shared" si="3"/>
         <v>6.7946640069816724E-2</v>
       </c>
@@ -5506,14 +5507,14 @@
       <c r="B28" s="1">
         <v>12920</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>0.48751037657535279</v>
       </c>
       <c r="D28" s="1">
         <v>10468</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="4">
         <f t="shared" si="1"/>
         <v>0.39498905742962798</v>
       </c>
@@ -5527,7 +5528,7 @@
         <f t="shared" si="2"/>
         <v>3114</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="4">
         <f t="shared" si="3"/>
         <v>0.11750056599501925</v>
       </c>
@@ -5542,14 +5543,14 @@
       <c r="B29" s="1">
         <v>165012</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>0.60394843753431271</v>
       </c>
       <c r="D29" s="1">
         <v>89974</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="4">
         <f t="shared" si="1"/>
         <v>0.32930730321862806</v>
       </c>
@@ -5563,7 +5564,7 @@
         <f t="shared" si="2"/>
         <v>18236</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="4">
         <f t="shared" si="3"/>
         <v>6.6744259247059165E-2</v>
       </c>
@@ -5578,14 +5579,14 @@
       <c r="B30" s="1">
         <v>6705</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="4">
         <f t="shared" si="0"/>
         <v>0.42563321272138638</v>
       </c>
       <c r="D30" s="1">
         <v>7572</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="4">
         <f t="shared" si="1"/>
         <v>0.48067034850504664</v>
       </c>
@@ -5599,7 +5600,7 @@
         <f t="shared" si="2"/>
         <v>1476</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="4">
         <f t="shared" si="3"/>
         <v>9.369643877356694E-2</v>
       </c>
@@ -5614,14 +5615,14 @@
       <c r="B31" s="1">
         <v>269700</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="4">
         <f t="shared" si="0"/>
         <v>0.5187027239105223</v>
       </c>
       <c r="D31" s="1">
         <v>127585</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="4">
         <f t="shared" si="1"/>
         <v>0.24537889147246567</v>
       </c>
@@ -5635,7 +5636,7 @@
         <f t="shared" si="2"/>
         <v>122666</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="4">
         <f t="shared" si="3"/>
         <v>0.23591838461701198</v>
       </c>
@@ -5650,14 +5651,14 @@
       <c r="B32" s="1">
         <v>341708</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="4">
         <f t="shared" si="0"/>
         <v>0.80161586209808711</v>
       </c>
       <c r="D32" s="1">
         <v>44272</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="4">
         <f t="shared" si="1"/>
         <v>0.1038580818909903</v>
       </c>
@@ -5671,7 +5672,7 @@
         <f t="shared" si="2"/>
         <v>40294</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="4">
         <f t="shared" si="3"/>
         <v>9.4526056010922552E-2</v>
       </c>
@@ -5686,14 +5687,14 @@
       <c r="B33" s="1">
         <v>37625</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="4">
         <f t="shared" si="0"/>
         <v>0.49572458135153297</v>
       </c>
       <c r="D33" s="1">
         <v>31714</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="4">
         <f t="shared" si="1"/>
         <v>0.41784476738823961</v>
       </c>
@@ -5707,7 +5708,7 @@
         <f t="shared" si="2"/>
         <v>6560</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="4">
         <f t="shared" si="3"/>
         <v>8.6430651260227406E-2</v>
       </c>
@@ -5722,15 +5723,15 @@
       <c r="B34" s="1">
         <v>34779</v>
       </c>
-      <c r="C34" s="2">
-        <f t="shared" ref="C34:C63" si="4">B34/J34</f>
+      <c r="C34" s="4">
+        <f t="shared" si="0"/>
         <v>0.46515889150438688</v>
       </c>
       <c r="D34" s="1">
         <v>32535</v>
       </c>
-      <c r="E34" s="2">
-        <f t="shared" ref="E34:E63" si="5">D34/J34</f>
+      <c r="E34" s="4">
+        <f t="shared" si="1"/>
         <v>0.43514605178686067</v>
       </c>
       <c r="F34" s="1">
@@ -5740,10 +5741,10 @@
         <v>4</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" ref="H34:H63" si="6">SUM(F34,G34)</f>
+        <f t="shared" ref="H34:H63" si="4">SUM(F34,G34)</f>
         <v>7454</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="4">
         <f t="shared" si="3"/>
         <v>9.9695056708752408E-2</v>
       </c>
@@ -5758,15 +5759,15 @@
       <c r="B35" s="1">
         <v>104306</v>
       </c>
-      <c r="C35" s="2">
-        <f t="shared" si="4"/>
+      <c r="C35" s="4">
+        <f t="shared" si="0"/>
         <v>0.62668076567212605</v>
       </c>
       <c r="D35" s="1">
         <v>52518</v>
       </c>
-      <c r="E35" s="2">
-        <f t="shared" si="5"/>
+      <c r="E35" s="4">
+        <f t="shared" si="1"/>
         <v>0.31553333894089231</v>
       </c>
       <c r="F35" s="1">
@@ -5776,10 +5777,10 @@
         <v>8</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>9618</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="4">
         <f t="shared" si="3"/>
         <v>5.7785895386981652E-2</v>
       </c>
@@ -5794,15 +5795,15 @@
       <c r="B36" s="1">
         <v>23653</v>
       </c>
-      <c r="C36" s="2">
-        <f t="shared" si="4"/>
+      <c r="C36" s="4">
+        <f t="shared" si="0"/>
         <v>0.51784306856992735</v>
       </c>
       <c r="D36" s="1">
         <v>17278</v>
       </c>
-      <c r="E36" s="2">
-        <f t="shared" si="5"/>
+      <c r="E36" s="4">
+        <f t="shared" si="1"/>
         <v>0.37827305368245906</v>
       </c>
       <c r="F36" s="1">
@@ -5812,10 +5813,10 @@
         <v>3</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4745</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="4">
         <f t="shared" si="3"/>
         <v>0.10388387774761362</v>
       </c>
@@ -5830,15 +5831,15 @@
       <c r="B37" s="1">
         <v>64419</v>
       </c>
-      <c r="C37" s="2">
-        <f t="shared" si="4"/>
+      <c r="C37" s="4">
+        <f t="shared" si="0"/>
         <v>0.5217253974553141</v>
       </c>
       <c r="D37" s="1">
         <v>44313</v>
       </c>
-      <c r="E37" s="2">
-        <f t="shared" si="5"/>
+      <c r="E37" s="4">
+        <f t="shared" si="1"/>
         <v>0.35888817798223094</v>
       </c>
       <c r="F37" s="1">
@@ -5848,10 +5849,10 @@
         <v>8</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>14741</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="4">
         <f t="shared" si="3"/>
         <v>0.11938642456245495</v>
       </c>
@@ -5866,15 +5867,15 @@
       <c r="B38" s="1">
         <v>5167</v>
       </c>
-      <c r="C38" s="2">
-        <f t="shared" si="4"/>
+      <c r="C38" s="4">
+        <f t="shared" si="0"/>
         <v>0.37936857562408222</v>
       </c>
       <c r="D38" s="1">
         <v>7119</v>
       </c>
-      <c r="E38" s="2">
-        <f t="shared" si="5"/>
+      <c r="E38" s="4">
+        <f t="shared" si="1"/>
         <v>0.52268722466960349</v>
       </c>
       <c r="F38" s="1">
@@ -5884,10 +5885,10 @@
         <v>0</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1334</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="4">
         <f t="shared" si="3"/>
         <v>9.7944199706314239E-2</v>
       </c>
@@ -5902,15 +5903,15 @@
       <c r="B39" s="1">
         <v>18597</v>
       </c>
-      <c r="C39" s="2">
-        <f t="shared" si="4"/>
+      <c r="C39" s="4">
+        <f t="shared" si="0"/>
         <v>0.47085780838565933</v>
       </c>
       <c r="D39" s="1">
         <v>18522</v>
       </c>
-      <c r="E39" s="2">
-        <f t="shared" si="5"/>
+      <c r="E39" s="4">
+        <f t="shared" si="1"/>
         <v>0.46895888191209234</v>
       </c>
       <c r="F39" s="1">
@@ -5920,10 +5921,10 @@
         <v>5</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2377</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="4">
         <f t="shared" si="3"/>
         <v>6.0183309702248326E-2</v>
       </c>
@@ -5938,15 +5939,15 @@
       <c r="B40" s="1">
         <v>11150</v>
       </c>
-      <c r="C40" s="2">
-        <f t="shared" si="4"/>
+      <c r="C40" s="4">
+        <f t="shared" si="0"/>
         <v>0.51653849717409428</v>
       </c>
       <c r="D40" s="1">
         <v>9134</v>
       </c>
-      <c r="E40" s="2">
-        <f t="shared" si="5"/>
+      <c r="E40" s="4">
+        <f t="shared" si="1"/>
         <v>0.42314463077920872</v>
       </c>
       <c r="F40" s="1">
@@ -5956,10 +5957,10 @@
         <v>0</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1302</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="4">
         <f t="shared" si="3"/>
         <v>6.0316872046696932E-2</v>
       </c>
@@ -5974,15 +5975,15 @@
       <c r="B41" s="1">
         <v>22003</v>
       </c>
-      <c r="C41" s="2">
-        <f t="shared" si="4"/>
+      <c r="C41" s="4">
+        <f t="shared" si="0"/>
         <v>0.52805510223672847</v>
       </c>
       <c r="D41" s="1">
         <v>16146</v>
       </c>
-      <c r="E41" s="2">
-        <f t="shared" si="5"/>
+      <c r="E41" s="4">
+        <f t="shared" si="1"/>
         <v>0.38749160026879143</v>
       </c>
       <c r="F41" s="1">
@@ -5992,10 +5993,10 @@
         <v>2</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3519</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="4">
         <f t="shared" si="3"/>
         <v>8.4453297494480176E-2</v>
       </c>
@@ -6010,15 +6011,15 @@
       <c r="B42" s="1">
         <v>283543</v>
       </c>
-      <c r="C42" s="2">
-        <f t="shared" si="4"/>
+      <c r="C42" s="4">
+        <f t="shared" si="0"/>
         <v>0.68271793698758776</v>
       </c>
       <c r="D42" s="1">
         <v>78502</v>
       </c>
-      <c r="E42" s="2">
-        <f t="shared" si="5"/>
+      <c r="E42" s="4">
+        <f t="shared" si="1"/>
         <v>0.18901797430865727</v>
       </c>
       <c r="F42" s="1">
@@ -6028,10 +6029,10 @@
         <v>103</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>53270</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="4">
         <f t="shared" si="3"/>
         <v>0.12826408870375497</v>
       </c>
@@ -6046,15 +6047,15 @@
       <c r="B43" s="1">
         <v>33550</v>
       </c>
-      <c r="C43" s="2">
-        <f t="shared" si="4"/>
+      <c r="C43" s="4">
+        <f t="shared" si="0"/>
         <v>0.54057102345965458</v>
       </c>
       <c r="D43" s="1">
         <v>23298</v>
       </c>
-      <c r="E43" s="2">
-        <f t="shared" si="5"/>
+      <c r="E43" s="4">
+        <f t="shared" si="1"/>
         <v>0.37538669760247484</v>
       </c>
       <c r="F43" s="1">
@@ -6064,10 +6065,10 @@
         <v>0</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>5216</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="4">
         <f t="shared" si="3"/>
         <v>8.4042278937870585E-2</v>
       </c>
@@ -6082,15 +6083,15 @@
       <c r="B44" s="1">
         <v>64499</v>
       </c>
-      <c r="C44" s="2">
-        <f t="shared" si="4"/>
+      <c r="C44" s="4">
+        <f t="shared" si="0"/>
         <v>0.46369799492440528</v>
       </c>
       <c r="D44" s="1">
         <v>56890</v>
       </c>
-      <c r="E44" s="2">
-        <f t="shared" si="5"/>
+      <c r="E44" s="4">
+        <f t="shared" si="1"/>
         <v>0.40899516164978394</v>
       </c>
       <c r="F44" s="1">
@@ -6100,10 +6101,10 @@
         <v>35</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>17708</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="4">
         <f t="shared" si="3"/>
         <v>0.12730684342581078</v>
       </c>
@@ -6118,15 +6119,15 @@
       <c r="B45" s="1">
         <v>51295</v>
       </c>
-      <c r="C45" s="2">
-        <f t="shared" si="4"/>
+      <c r="C45" s="4">
+        <f t="shared" si="0"/>
         <v>0.46531141711569513</v>
       </c>
       <c r="D45" s="1">
         <v>36165</v>
       </c>
-      <c r="E45" s="2">
-        <f t="shared" si="5"/>
+      <c r="E45" s="4">
+        <f t="shared" si="1"/>
         <v>0.32806291841288848</v>
       </c>
       <c r="F45" s="1">
@@ -6136,10 +6137,10 @@
         <v>18</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>22778</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="4">
         <f t="shared" si="3"/>
         <v>0.20662566447141639</v>
       </c>
@@ -6154,15 +6155,15 @@
       <c r="B46" s="1">
         <v>57310</v>
       </c>
-      <c r="C46" s="2">
-        <f t="shared" si="4"/>
+      <c r="C46" s="4">
+        <f t="shared" si="0"/>
         <v>0.55702427929941878</v>
       </c>
       <c r="D46" s="1">
         <v>37672</v>
       </c>
-      <c r="E46" s="2">
-        <f t="shared" si="5"/>
+      <c r="E46" s="4">
+        <f t="shared" si="1"/>
         <v>0.36615282934510041</v>
       </c>
       <c r="F46" s="1">
@@ -6172,10 +6173,10 @@
         <v>3</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>7904</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="4">
         <f t="shared" si="3"/>
         <v>7.682289135548083E-2</v>
       </c>
@@ -6190,15 +6191,15 @@
       <c r="B47" s="1">
         <v>31482</v>
       </c>
-      <c r="C47" s="2">
-        <f t="shared" si="4"/>
+      <c r="C47" s="4">
+        <f t="shared" si="0"/>
         <v>0.57229594619160151</v>
       </c>
       <c r="D47" s="1">
         <v>19148</v>
       </c>
-      <c r="E47" s="2">
-        <f t="shared" si="5"/>
+      <c r="E47" s="4">
+        <f t="shared" si="1"/>
         <v>0.34808216687874932</v>
       </c>
       <c r="F47" s="1">
@@ -6208,10 +6209,10 @@
         <v>6</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4380</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="4">
         <f t="shared" si="3"/>
         <v>7.9621886929649152E-2</v>
       </c>
@@ -6226,15 +6227,15 @@
       <c r="B48" s="1">
         <v>5119</v>
       </c>
-      <c r="C48" s="2">
-        <f t="shared" si="4"/>
+      <c r="C48" s="4">
+        <f t="shared" si="0"/>
         <v>0.40463204489763654</v>
       </c>
       <c r="D48" s="1">
         <v>6276</v>
       </c>
-      <c r="E48" s="2">
-        <f t="shared" si="5"/>
+      <c r="E48" s="4">
+        <f t="shared" si="1"/>
         <v>0.49608726582878826</v>
       </c>
       <c r="F48" s="1">
@@ -6244,10 +6245,10 @@
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1256</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="4">
         <f t="shared" si="3"/>
         <v>9.9280689273575209E-2</v>
       </c>
@@ -6262,15 +6263,15 @@
       <c r="B49" s="1">
         <v>3621</v>
       </c>
-      <c r="C49" s="2">
-        <f t="shared" si="4"/>
+      <c r="C49" s="4">
+        <f t="shared" si="0"/>
         <v>0.47166862055490427</v>
       </c>
       <c r="D49" s="1">
         <v>3702</v>
       </c>
-      <c r="E49" s="2">
-        <f t="shared" si="5"/>
+      <c r="E49" s="4">
+        <f t="shared" si="1"/>
         <v>0.48221961703790545</v>
       </c>
       <c r="F49" s="1">
@@ -6280,10 +6281,10 @@
         <v>0</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>354</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="4">
         <f t="shared" si="3"/>
         <v>4.611176240719031E-2</v>
       </c>
@@ -6298,15 +6299,15 @@
       <c r="B50" s="1">
         <v>5939</v>
       </c>
-      <c r="C50" s="2">
-        <f t="shared" si="4"/>
+      <c r="C50" s="4">
+        <f t="shared" si="0"/>
         <v>0.51873526072146037</v>
       </c>
       <c r="D50" s="1">
         <v>4802</v>
       </c>
-      <c r="E50" s="2">
-        <f t="shared" si="5"/>
+      <c r="E50" s="4">
+        <f t="shared" si="1"/>
         <v>0.41942527731679624</v>
       </c>
       <c r="F50" s="1">
@@ -6316,10 +6317,10 @@
         <v>0</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>708</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="4">
         <f t="shared" si="3"/>
         <v>6.1839461961743385E-2</v>
       </c>
@@ -6334,15 +6335,15 @@
       <c r="B51" s="1">
         <v>15425</v>
       </c>
-      <c r="C51" s="2">
-        <f t="shared" si="4"/>
+      <c r="C51" s="4">
+        <f t="shared" si="0"/>
         <v>0.45269120150261194</v>
       </c>
       <c r="D51" s="1">
         <v>13677</v>
       </c>
-      <c r="E51" s="2">
-        <f t="shared" si="5"/>
+      <c r="E51" s="4">
+        <f t="shared" si="1"/>
         <v>0.40139108998063039</v>
       </c>
       <c r="F51" s="1">
@@ -6352,10 +6353,10 @@
         <v>3</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4972</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="4">
         <f t="shared" si="3"/>
         <v>0.14591770851675764</v>
       </c>
@@ -6370,15 +6371,15 @@
       <c r="B52" s="1">
         <v>14411</v>
       </c>
-      <c r="C52" s="2">
-        <f t="shared" si="4"/>
+      <c r="C52" s="4">
+        <f t="shared" si="0"/>
         <v>0.42180594175325625</v>
       </c>
       <c r="D52" s="1">
         <v>17702</v>
       </c>
-      <c r="E52" s="2">
-        <f t="shared" si="5"/>
+      <c r="E52" s="4">
+        <f t="shared" si="1"/>
         <v>0.51813259183374794</v>
       </c>
       <c r="F52" s="1">
@@ -6388,10 +6389,10 @@
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2052</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="4">
         <f t="shared" si="3"/>
         <v>6.0061466412995757E-2</v>
       </c>
@@ -6406,15 +6407,15 @@
       <c r="B53" s="1">
         <v>328372</v>
       </c>
-      <c r="C53" s="2">
-        <f t="shared" si="4"/>
+      <c r="C53" s="4">
+        <f t="shared" si="0"/>
         <v>0.5917369609445533</v>
       </c>
       <c r="D53" s="1">
         <v>187972</v>
       </c>
-      <c r="E53" s="2">
-        <f t="shared" si="5"/>
+      <c r="E53" s="4">
+        <f t="shared" si="1"/>
         <v>0.33873162152275338</v>
       </c>
       <c r="F53" s="1">
@@ -6424,10 +6425,10 @@
         <v>119</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>38585</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="4">
         <f t="shared" si="3"/>
         <v>6.9531417532693374E-2</v>
       </c>
@@ -6442,15 +6443,15 @@
       <c r="B54" s="1">
         <v>12008</v>
       </c>
-      <c r="C54" s="2">
-        <f t="shared" si="4"/>
+      <c r="C54" s="4">
+        <f t="shared" si="0"/>
         <v>0.48145623671865601</v>
       </c>
       <c r="D54" s="1">
         <v>9989</v>
       </c>
-      <c r="E54" s="2">
-        <f t="shared" si="5"/>
+      <c r="E54" s="4">
+        <f t="shared" si="1"/>
         <v>0.40050519225371878</v>
       </c>
       <c r="F54" s="1">
@@ -6460,10 +6461,10 @@
         <v>1</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2944</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="4">
         <f t="shared" si="3"/>
         <v>0.11803857102762519</v>
       </c>
@@ -6478,15 +6479,15 @@
       <c r="B55" s="1">
         <v>8308</v>
       </c>
-      <c r="C55" s="2">
-        <f t="shared" si="4"/>
+      <c r="C55" s="4">
+        <f t="shared" si="0"/>
         <v>0.44144527098831032</v>
       </c>
       <c r="D55" s="1">
         <v>9137</v>
       </c>
-      <c r="E55" s="2">
-        <f t="shared" si="5"/>
+      <c r="E55" s="4">
+        <f t="shared" si="1"/>
         <v>0.48549415515409139</v>
       </c>
       <c r="F55" s="1">
@@ -6496,10 +6497,10 @@
         <v>2</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1375</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="4">
         <f t="shared" si="3"/>
         <v>7.3060573857598302E-2</v>
       </c>
@@ -6514,15 +6515,15 @@
       <c r="B56" s="1">
         <v>24873</v>
       </c>
-      <c r="C56" s="2">
-        <f t="shared" si="4"/>
+      <c r="C56" s="4">
+        <f t="shared" si="0"/>
         <v>0.73427997874476003</v>
       </c>
       <c r="D56" s="1">
         <v>7108</v>
       </c>
-      <c r="E56" s="2">
-        <f t="shared" si="5"/>
+      <c r="E56" s="4">
+        <f t="shared" si="1"/>
         <v>0.20983645273661214</v>
       </c>
       <c r="F56" s="1">
@@ -6532,10 +6533,10 @@
         <v>0</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1893</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="4">
         <f t="shared" si="3"/>
         <v>5.5883568518627857E-2</v>
       </c>
@@ -6550,15 +6551,15 @@
       <c r="B57" s="1">
         <v>51145</v>
       </c>
-      <c r="C57" s="2">
-        <f t="shared" si="4"/>
+      <c r="C57" s="4">
+        <f t="shared" si="0"/>
         <v>0.64965005652444519</v>
       </c>
       <c r="D57" s="1">
         <v>23448</v>
       </c>
-      <c r="E57" s="2">
-        <f t="shared" si="5"/>
+      <c r="E57" s="4">
+        <f t="shared" si="1"/>
         <v>0.29783936895855295</v>
       </c>
       <c r="F57" s="1">
@@ -6568,10 +6569,10 @@
         <v>6</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4134</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="4">
         <f t="shared" si="3"/>
         <v>5.2510574517001793E-2</v>
       </c>
@@ -6586,15 +6587,15 @@
       <c r="B58" s="1">
         <v>16185</v>
       </c>
-      <c r="C58" s="2">
-        <f t="shared" si="4"/>
+      <c r="C58" s="4">
+        <f t="shared" si="0"/>
         <v>0.58341143392689787</v>
       </c>
       <c r="D58" s="1">
         <v>10291</v>
       </c>
-      <c r="E58" s="2">
-        <f t="shared" si="5"/>
+      <c r="E58" s="4">
+        <f t="shared" si="1"/>
         <v>0.37095378847956167</v>
       </c>
       <c r="F58" s="1">
@@ -6604,10 +6605,10 @@
         <v>2</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1266</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="4">
         <f t="shared" si="3"/>
         <v>4.5634777593540482E-2</v>
       </c>
@@ -6622,15 +6623,15 @@
       <c r="B59" s="1">
         <v>9919</v>
       </c>
-      <c r="C59" s="2">
-        <f t="shared" si="4"/>
+      <c r="C59" s="4">
+        <f t="shared" si="0"/>
         <v>0.47343802205145341</v>
       </c>
       <c r="D59" s="1">
         <v>9451</v>
       </c>
-      <c r="E59" s="2">
-        <f t="shared" si="5"/>
+      <c r="E59" s="4">
+        <f t="shared" si="1"/>
         <v>0.45110018614863251</v>
       </c>
       <c r="F59" s="1">
@@ -6640,10 +6641,10 @@
         <v>1</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1581</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="4">
         <f t="shared" si="3"/>
         <v>7.546179179991408E-2</v>
       </c>
@@ -6658,15 +6659,15 @@
       <c r="B60" s="1">
         <v>13577</v>
       </c>
-      <c r="C60" s="2">
-        <f t="shared" si="4"/>
+      <c r="C60" s="4">
+        <f t="shared" si="0"/>
         <v>0.42619914615770971</v>
       </c>
       <c r="D60" s="1">
         <v>14969</v>
       </c>
-      <c r="E60" s="2">
-        <f t="shared" si="5"/>
+      <c r="E60" s="4">
+        <f t="shared" si="1"/>
         <v>0.46989578101456553</v>
       </c>
       <c r="F60" s="1">
@@ -6676,10 +6677,10 @@
         <v>1</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3310</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="4">
         <f t="shared" si="3"/>
         <v>0.10390507282772476</v>
       </c>
@@ -6694,15 +6695,15 @@
       <c r="B61" s="1">
         <v>223655</v>
       </c>
-      <c r="C61" s="2">
-        <f t="shared" si="4"/>
+      <c r="C61" s="4">
+        <f t="shared" si="0"/>
         <v>0.67789854633188251</v>
       </c>
       <c r="D61" s="1">
         <v>80273</v>
       </c>
-      <c r="E61" s="2">
-        <f t="shared" si="5"/>
+      <c r="E61" s="4">
+        <f t="shared" si="1"/>
         <v>0.24330754961748766</v>
       </c>
       <c r="F61" s="1">
@@ -6712,10 +6713,10 @@
         <v>28</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>25996</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="4">
         <f t="shared" si="3"/>
         <v>7.8793904050629845E-2</v>
       </c>
@@ -6730,15 +6731,15 @@
       <c r="B62" s="1">
         <v>4933</v>
       </c>
-      <c r="C62" s="2">
-        <f t="shared" si="4"/>
+      <c r="C62" s="4">
+        <f t="shared" si="0"/>
         <v>0.34793341797150512</v>
       </c>
       <c r="D62" s="1">
         <v>8184</v>
       </c>
-      <c r="E62" s="2">
-        <f t="shared" si="5"/>
+      <c r="E62" s="4">
+        <f t="shared" si="1"/>
         <v>0.57723233178163347</v>
       </c>
       <c r="F62" s="1">
@@ -6748,10 +6749,10 @@
         <v>0</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1061</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="4">
         <f t="shared" si="3"/>
         <v>7.4834250246861328E-2</v>
       </c>
@@ -6766,15 +6767,15 @@
       <c r="B63" s="1">
         <v>3976</v>
       </c>
-      <c r="C63" s="2">
-        <f t="shared" si="4"/>
+      <c r="C63" s="4">
+        <f t="shared" si="0"/>
         <v>0.47645296584781305</v>
       </c>
       <c r="D63" s="1">
         <v>4001</v>
       </c>
-      <c r="E63" s="2">
-        <f t="shared" si="5"/>
+      <c r="E63" s="4">
+        <f t="shared" si="1"/>
         <v>0.47944877171959255</v>
       </c>
       <c r="F63" s="1">
@@ -6784,10 +6785,10 @@
         <v>0</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>368</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="4">
         <f t="shared" si="3"/>
         <v>4.4098262432594369E-2</v>
       </c>
